--- a/카드사 지급별 연봉.xlsx
+++ b/카드사 지급별 연봉.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEDICI\Documents\MEDICI (22-01-19 ~ 22-06-24)\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78109955-C5AF-4739-A9C5-F4A8DCB6D507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E92AA0E-FB84-45C9-BC73-E41FA025637A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="1035" windowWidth="13815" windowHeight="14670" xr2:uid="{C068747C-D952-4F65-8156-EC2DCD36C8E9}"/>
+    <workbookView minimized="1" xWindow="630" yWindow="930" windowWidth="13815" windowHeight="14670" xr2:uid="{C068747C-D952-4F65-8156-EC2DCD36C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,10 +467,13 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A11" sqref="A11:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
